--- a/medicine/Sexualité et sexologie/Laura,_les_ombres_de_l'été/Laura,_les_ombres_de_l'été.xlsx
+++ b/medicine/Sexualité et sexologie/Laura,_les_ombres_de_l'été/Laura,_les_ombres_de_l'été.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laura,_les_ombres_de_l%27%C3%A9t%C3%A9</t>
+          <t>Laura,_les_ombres_de_l'été</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laura, les ombres de l’été est un film dramatique et érotique français sorti en 1979, réalisé par David Hamilton.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laura,_les_ombres_de_l%27%C3%A9t%C3%A9</t>
+          <t>Laura,_les_ombres_de_l'été</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Thomas Wyler (James Patrick Mitchell), sculpteur, rencontre Sara Moore (Maud Adams), un ancien grand amour qu'il n'a pas vu depuis longtemps. Il est rapidement très attiré par la fille de celle-ci, Laura (Dawn Dunlap), 15 ans, qui ressemble à sa mère à l'époque où il était avec elle. Cette attirance est visiblement réciproque, mais Sara, jalouse, empêche tout contact entre eux. Elle lui permet juste de faire une sculpture de Laura, mais seulement à partir de photos. Naît alors une relation passionnée entre Laura et Paul…
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laura,_les_ombres_de_l%27%C3%A9t%C3%A9</t>
+          <t>Laura,_les_ombres_de_l'été</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Laura, les ombres de l'été
 Réalisateur : David Hamilton, assisté d'Alain-Michel Blanc et de Marc Guilbert
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laura,_les_ombres_de_l%27%C3%A9t%C3%A9</t>
+          <t>Laura,_les_ombres_de_l'été</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Maud Adams : Sara Moore
 Dawn Dunlap : Laura Moore
